--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1348931.228872678</v>
+        <v>1314878.483433742</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>820887.5102824857</v>
+        <v>820887.5102824862</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6996667.357684181</v>
+        <v>6996667.357684176</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>245.6464724270101</v>
       </c>
       <c r="G2" t="n">
-        <v>114.679660629039</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.73916953180442</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S2" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T2" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I3" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S3" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T3" t="n">
-        <v>185.9745311655623</v>
+        <v>185.9745311655613</v>
       </c>
       <c r="U3" t="n">
         <v>216.2963996197277</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.280084563034351</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
@@ -834,7 +834,7 @@
         <v>167.0592210434877</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3511532889917225</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R4" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>325.5814052293737</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.09434862742485</v>
       </c>
       <c r="S5" t="n">
-        <v>98.50614647509998</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,10 +983,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>145.5577298436972</v>
       </c>
       <c r="F6" t="n">
-        <v>133.346860069625</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.2368531361802</v>
@@ -995,7 +995,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I6" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S6" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T6" t="n">
         <v>185.9745311655613</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T7" t="n">
-        <v>124.8390672247518</v>
+        <v>109.0495370684573</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>162.5199334079698</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5609956070679</v>
+        <v>38.93479341589961</v>
       </c>
       <c r="H8" t="n">
         <v>325.5814052293737</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S9" t="n">
         <v>147.4755605575067</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>8.05302411083443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>124.8390672247517</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
@@ -1387,7 +1387,7 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>5.805231144414206</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>162.9381147548149</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T12" t="n">
         <v>185.9745311655613</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.362977674051619</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.6085360990543</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138465</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>97.99823451450457</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>142.5183308965551</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180442</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -1706,7 +1706,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S15" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T15" t="n">
         <v>185.9745311655613</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138465</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>17.1020697595324</v>
+        <v>125.8532215944585</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S17" t="n">
-        <v>137.6049911252901</v>
+        <v>108.9033821796529</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.82927225029761</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>140.32293915197</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>66.02956134782087</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>143.7358015348946</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.305926837283</v>
+        <v>47.95348937137229</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -2250,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.2556384040709</v>
+        <v>124.8390672247517</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.34362796447565</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V22" t="n">
-        <v>5.33873547090996</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H23" t="n">
-        <v>238.375159471652</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>141.1469468886812</v>
+        <v>15.63331580055949</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.94520556670599</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>167.65860777264</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.7155395486319</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>358.909580840975</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>15.97245785885037</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.82607860242548</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2520,28 +2520,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.979749550313016</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>132.3620546020535</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>205.5013217243044</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.3586235765045</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>201.4787412111255</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.663246963244621</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.166289397049</v>
       </c>
       <c r="H26" t="n">
-        <v>321.5391202560179</v>
+        <v>177.3620150617286</v>
       </c>
       <c r="I26" t="n">
         <v>141.1469468886812</v>
@@ -2605,7 +2605,7 @@
         <v>40.94520556670599</v>
       </c>
       <c r="S26" t="n">
-        <v>167.65860777264</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>37.95696451164031</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.8821694259198</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>154.6814885678763</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.3586235765045</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>40.72065981653702</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.166289397049</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>321.5391202560179</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>40.94520556670599</v>
       </c>
       <c r="S29" t="n">
-        <v>167.65860777264</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>117.806586596379</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>299.9640650720631</v>
       </c>
       <c r="X29" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>41.72515682528553</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>70.91316875886936</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>334.2657271102308</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>411.166289397049</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>321.5391202560179</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.94520556670599</v>
       </c>
       <c r="S32" t="n">
-        <v>161.5066198373292</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>80.03830100280146</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.3586235765045</v>
       </c>
       <c r="U34" t="n">
-        <v>271.0837804017901</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>271.9921088874445</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
@@ -3283,10 +3283,10 @@
         <v>411.166289397049</v>
       </c>
       <c r="H35" t="n">
-        <v>321.5391202560179</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>141.1469468886812</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>161.5066198373297</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>41.1393439294636</v>
       </c>
       <c r="F37" t="n">
-        <v>25.09759010278267</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>284.2993344765234</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>179.2351429588236</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H38" t="n">
-        <v>239.8991780012007</v>
+        <v>321.5391202560179</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>252.2743503404815</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
@@ -3571,7 +3571,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>55.68772837192645</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.8821694259198</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>154.6814885678763</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2993344765234</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>174.4828299815063</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>248.6970986260959</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>161.5066198373292</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>15.97245785885037</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>284.2993344765234</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>270.0792833930416</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
@@ -3988,13 +3988,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>203.57718410933</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>321.5391202560179</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>367.2495383826916</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>63.19258232489233</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.979749550313016</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.3586235765045</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>14.59547222197243</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738.786440162512</v>
+        <v>1267.428855634292</v>
       </c>
       <c r="C2" t="n">
-        <v>738.786440162512</v>
+        <v>1267.428855634292</v>
       </c>
       <c r="D2" t="n">
-        <v>738.786440162512</v>
+        <v>1267.428855634292</v>
       </c>
       <c r="E2" t="n">
-        <v>738.786440162512</v>
+        <v>872.6431357403985</v>
       </c>
       <c r="F2" t="n">
-        <v>324.6352494726823</v>
+        <v>624.5153858141257</v>
       </c>
       <c r="G2" t="n">
         <v>208.797208433249</v>
@@ -4330,25 +4330,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J2" t="n">
-        <v>154.9459054532637</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K2" t="n">
-        <v>443.1860302481635</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L2" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M2" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N2" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O2" t="n">
         <v>2124.896977382889</v>
       </c>
       <c r="P2" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.695873660731</v>
@@ -4357,25 +4357,25 @@
         <v>2476.292672113454</v>
       </c>
       <c r="S2" t="n">
-        <v>2297.855323089772</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T2" t="n">
-        <v>2075.185256440288</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="U2" t="n">
-        <v>1820.330784887476</v>
+        <v>2043.00085153696</v>
       </c>
       <c r="V2" t="n">
-        <v>1483.351510783418</v>
+        <v>2043.00085153696</v>
       </c>
       <c r="W2" t="n">
-        <v>1120.816580641019</v>
+        <v>2043.00085153696</v>
       </c>
       <c r="X2" t="n">
-        <v>738.786440162512</v>
+        <v>1660.970711058454</v>
       </c>
       <c r="Y2" t="n">
-        <v>738.786440162512</v>
+        <v>1267.428855634292</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C3" t="n">
-        <v>759.1557230830587</v>
+        <v>759.155723083059</v>
       </c>
       <c r="D3" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E3" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F3" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G3" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137697</v>
       </c>
       <c r="I3" t="n">
         <v>50.85391747321462</v>
@@ -4412,43 +4412,43 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K3" t="n">
-        <v>313.0144261414831</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L3" t="n">
-        <v>722.7650590219089</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M3" t="n">
-        <v>1259.061235803009</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N3" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O3" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P3" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q3" t="n">
         <v>2542.695873660731</v>
       </c>
       <c r="R3" t="n">
-        <v>2495.728130619193</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S3" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T3" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U3" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V3" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W3" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X3" t="n">
         <v>1272.800164973786</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.0812603701524</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0812603701524</v>
+        <v>531.2082532662183</v>
       </c>
       <c r="D4" t="n">
-        <v>372.0812603701524</v>
+        <v>531.2082532662183</v>
       </c>
       <c r="E4" t="n">
-        <v>372.0812603701524</v>
+        <v>529.9152385560826</v>
       </c>
       <c r="F4" t="n">
-        <v>219.6006053959295</v>
+        <v>377.4345835818597</v>
       </c>
       <c r="G4" t="n">
-        <v>50.85391747321462</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="H4" t="n">
         <v>50.85391747321462</v>
@@ -4497,43 +4497,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M4" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N4" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O4" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P4" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q4" t="n">
-        <v>724.5153893625109</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="R4" t="n">
-        <v>582.7750467847634</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="S4" t="n">
-        <v>372.0812603701524</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="T4" t="n">
-        <v>372.0812603701524</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="U4" t="n">
-        <v>372.0812603701524</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="V4" t="n">
-        <v>372.0812603701524</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="W4" t="n">
-        <v>372.0812603701524</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="X4" t="n">
-        <v>372.0812603701524</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.0812603701524</v>
+        <v>700.8242228045381</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1209.593391836218</v>
+        <v>2122.294406236221</v>
       </c>
       <c r="C5" t="n">
-        <v>1209.593391836218</v>
+        <v>1740.360647569029</v>
       </c>
       <c r="D5" t="n">
-        <v>1209.593391836218</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="E5" t="n">
-        <v>1209.593391836218</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="F5" t="n">
-        <v>795.442201146388</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="G5" t="n">
-        <v>379.7240237655113</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H5" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I5" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J5" t="n">
         <v>154.9459054532635</v>
       </c>
       <c r="K5" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L5" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M5" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N5" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O5" t="n">
         <v>2124.896977382889</v>
@@ -4588,31 +4588,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R5" t="n">
-        <v>2542.695873660731</v>
+        <v>2516.337945754241</v>
       </c>
       <c r="S5" t="n">
-        <v>2443.194715605074</v>
+        <v>2516.337945754241</v>
       </c>
       <c r="T5" t="n">
-        <v>2220.52464895559</v>
+        <v>2516.337945754241</v>
       </c>
       <c r="U5" t="n">
-        <v>1965.670177402779</v>
+        <v>2516.337945754241</v>
       </c>
       <c r="V5" t="n">
-        <v>1965.670177402779</v>
+        <v>2516.337945754241</v>
       </c>
       <c r="W5" t="n">
-        <v>1603.13524726038</v>
+        <v>2516.337945754241</v>
       </c>
       <c r="X5" t="n">
-        <v>1603.13524726038</v>
+        <v>2516.337945754241</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.593391836218</v>
+        <v>2516.337945754241</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421036</v>
       </c>
       <c r="C6" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830583</v>
       </c>
       <c r="D6" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732704</v>
       </c>
       <c r="E6" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F6" t="n">
         <v>338.5952780800163</v>
@@ -4643,55 +4643,55 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I6" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J6" t="n">
-        <v>68.10001809715391</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K6" t="n">
-        <v>68.10001809715391</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L6" t="n">
-        <v>477.8506509775797</v>
+        <v>802.133840764949</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.14682775868</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N6" t="n">
-        <v>1578.032071547365</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O6" t="n">
         <v>2018.368674122672</v>
       </c>
       <c r="P6" t="n">
-        <v>2359.098500262959</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q6" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R6" t="n">
-        <v>2495.728130619192</v>
+        <v>2495.728130619191</v>
       </c>
       <c r="S6" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T6" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U6" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V6" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W6" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X6" t="n">
         <v>1272.800164973786</v>
       </c>
       <c r="Y6" t="n">
-        <v>1080.278838623365</v>
+        <v>1080.278838623364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.85391747321462</v>
+        <v>220.4698870115343</v>
       </c>
       <c r="C7" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D7" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E7" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F7" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G7" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H7" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I7" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J7" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K7" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L7" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M7" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N7" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O7" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P7" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q7" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R7" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S7" t="n">
-        <v>724.8700896544217</v>
+        <v>514.1763032398104</v>
       </c>
       <c r="T7" t="n">
-        <v>598.7700217506319</v>
+        <v>404.0252556959142</v>
       </c>
       <c r="U7" t="n">
-        <v>311.589221914792</v>
+        <v>404.0252556959142</v>
       </c>
       <c r="V7" t="n">
-        <v>50.85391747321462</v>
+        <v>404.0252556959142</v>
       </c>
       <c r="W7" t="n">
-        <v>50.85391747321462</v>
+        <v>404.0252556959142</v>
       </c>
       <c r="X7" t="n">
-        <v>50.85391747321462</v>
+        <v>404.0252556959142</v>
       </c>
       <c r="Y7" t="n">
-        <v>50.85391747321462</v>
+        <v>404.0252556959142</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1926.483951587084</v>
+        <v>1373.080338240042</v>
       </c>
       <c r="C8" t="n">
-        <v>1926.483951587084</v>
+        <v>991.1465795728498</v>
       </c>
       <c r="D8" t="n">
-        <v>1762.322402690145</v>
+        <v>991.1465795728498</v>
       </c>
       <c r="E8" t="n">
-        <v>1367.536682796252</v>
+        <v>991.1465795728498</v>
       </c>
       <c r="F8" t="n">
-        <v>953.3854921064224</v>
+        <v>576.99538888302</v>
       </c>
       <c r="G8" t="n">
         <v>537.6673147255457</v>
@@ -4801,22 +4801,22 @@
         <v>208.797208433249</v>
       </c>
       <c r="I8" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J8" t="n">
         <v>154.9459054532635</v>
       </c>
       <c r="K8" t="n">
-        <v>443.1860302481638</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L8" t="n">
-        <v>850.7433998907122</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M8" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N8" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O8" t="n">
         <v>2124.896977382889</v>
@@ -4825,31 +4825,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R8" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S8" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T8" t="n">
-        <v>2320.025807011246</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="U8" t="n">
-        <v>2320.025807011246</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="V8" t="n">
-        <v>2320.025807011246</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="W8" t="n">
-        <v>2320.025807011246</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="X8" t="n">
-        <v>2320.025807011246</v>
+        <v>2160.665733182223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1926.483951587084</v>
+        <v>1767.123877758062</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C9" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D9" t="n">
         <v>620.3170860732707</v>
@@ -4871,7 +4871,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F9" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G9" t="n">
         <v>210.0732042050868</v>
@@ -4880,28 +4880,28 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I9" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J9" t="n">
-        <v>68.10001809715385</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K9" t="n">
-        <v>68.10001809715385</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L9" t="n">
-        <v>477.8506509775796</v>
+        <v>722.7650590219087</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.14682775868</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N9" t="n">
-        <v>1578.032071547365</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O9" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P9" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q9" t="n">
         <v>2542.69587366073</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.85391747321462</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="C10" t="n">
-        <v>50.85391747321462</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="D10" t="n">
-        <v>50.85391747321462</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="E10" t="n">
-        <v>50.85391747321462</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="F10" t="n">
-        <v>50.85391747321462</v>
+        <v>564.2550668914769</v>
       </c>
       <c r="G10" t="n">
-        <v>50.85391747321462</v>
+        <v>395.508378968762</v>
       </c>
       <c r="H10" t="n">
-        <v>50.85391747321462</v>
+        <v>237.6744007828319</v>
       </c>
       <c r="I10" t="n">
-        <v>50.85391747321462</v>
+        <v>98.6757639019779</v>
       </c>
       <c r="J10" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K10" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L10" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M10" t="n">
         <v>374.5706761520456</v>
       </c>
       <c r="N10" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O10" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P10" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q10" t="n">
-        <v>724.8700896544216</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="R10" t="n">
-        <v>724.8700896544216</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="S10" t="n">
-        <v>724.8700896544216</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="T10" t="n">
-        <v>598.7700217506319</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="U10" t="n">
-        <v>311.589221914792</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="V10" t="n">
-        <v>50.85391747321462</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="W10" t="n">
-        <v>50.85391747321462</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="X10" t="n">
-        <v>50.85391747321462</v>
+        <v>716.7357218656998</v>
       </c>
       <c r="Y10" t="n">
-        <v>50.85391747321462</v>
+        <v>716.7357218656998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1964.351115276187</v>
+        <v>1253.547250316698</v>
       </c>
       <c r="C11" t="n">
-        <v>1582.417356608994</v>
+        <v>1253.547250316698</v>
       </c>
       <c r="D11" t="n">
-        <v>1209.593391836218</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.593391836218</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F11" t="n">
-        <v>795.442201146388</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532634</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
         <v>443.1860302481632</v>
@@ -5062,31 +5062,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R11" t="n">
-        <v>2536.832003817888</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S11" t="n">
-        <v>2358.394654794206</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T11" t="n">
-        <v>2358.394654794206</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="U11" t="n">
-        <v>2358.394654794206</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="V11" t="n">
-        <v>2358.394654794206</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="W11" t="n">
-        <v>2358.394654794206</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="X11" t="n">
-        <v>2358.394654794206</v>
+        <v>2041.132645258879</v>
       </c>
       <c r="Y11" t="n">
-        <v>2358.394654794206</v>
+        <v>1647.590789834717</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C12" t="n">
-        <v>759.1557230830589</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D12" t="n">
-        <v>620.317086073271</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E12" t="n">
-        <v>473.2890761301421</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800164</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G12" t="n">
         <v>210.0732042050868</v>
@@ -5117,40 +5117,40 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I12" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J12" t="n">
-        <v>68.10001809715391</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K12" t="n">
-        <v>68.10001809715391</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L12" t="n">
-        <v>477.8506509775797</v>
+        <v>722.7650590219087</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.14682775868</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N12" t="n">
-        <v>1578.032071547365</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P12" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q12" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R12" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S12" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T12" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U12" t="n">
         <v>1940.428644414347</v>
@@ -5159,7 +5159,7 @@
         <v>1712.033021862681</v>
       </c>
       <c r="W12" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X12" t="n">
         <v>1272.800164973786</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.3900938121797</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="C13" t="n">
-        <v>348.3900938121797</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="D13" t="n">
-        <v>348.3900938121797</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="E13" t="n">
-        <v>348.3900938121797</v>
+        <v>53.24076360862028</v>
       </c>
       <c r="F13" t="n">
-        <v>348.3900938121797</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G13" t="n">
-        <v>348.3900938121797</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H13" t="n">
-        <v>237.6744007828319</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K13" t="n">
         <v>104.1644935890949</v>
@@ -5208,43 +5208,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N13" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O13" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P13" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q13" t="n">
-        <v>700.8242228045382</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R13" t="n">
-        <v>559.0838802267907</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S13" t="n">
-        <v>348.3900938121797</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T13" t="n">
-        <v>348.3900938121797</v>
+        <v>492.4305776831415</v>
       </c>
       <c r="U13" t="n">
-        <v>348.3900938121797</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="V13" t="n">
-        <v>348.3900938121797</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="W13" t="n">
-        <v>348.3900938121797</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="X13" t="n">
-        <v>348.3900938121797</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="Y13" t="n">
-        <v>348.3900938121797</v>
+        <v>205.2497778473015</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>523.6819337620317</v>
+        <v>1532.440412069065</v>
       </c>
       <c r="C14" t="n">
-        <v>523.6819337620317</v>
+        <v>1433.452296397849</v>
       </c>
       <c r="D14" t="n">
-        <v>523.6819337620317</v>
+        <v>1433.452296397849</v>
       </c>
       <c r="E14" t="n">
-        <v>523.6819337620317</v>
+        <v>1038.666576503955</v>
       </c>
       <c r="F14" t="n">
-        <v>523.6819337620317</v>
+        <v>624.5153858141257</v>
       </c>
       <c r="G14" t="n">
-        <v>523.6819337620317</v>
+        <v>208.797208433249</v>
       </c>
       <c r="H14" t="n">
-        <v>194.811827469735</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I14" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481635</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L14" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O14" t="n">
         <v>2124.896977382889</v>
@@ -5302,28 +5302,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R14" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2253.622605463969</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U14" t="n">
-        <v>1998.768133911158</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V14" t="n">
-        <v>1661.788859807099</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="W14" t="n">
-        <v>1299.2539296647</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="X14" t="n">
-        <v>917.2237891861937</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="Y14" t="n">
-        <v>523.6819337620317</v>
+        <v>1926.483951587084</v>
       </c>
     </row>
     <row r="15">
@@ -5360,16 +5360,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K15" t="n">
-        <v>313.0144261414831</v>
+        <v>251.6973914949261</v>
       </c>
       <c r="L15" t="n">
-        <v>722.7650590219089</v>
+        <v>661.4480243753518</v>
       </c>
       <c r="M15" t="n">
-        <v>1259.061235803009</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N15" t="n">
-        <v>1822.946479591694</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O15" t="n">
         <v>2201.966047520444</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
         <v>50.85391747321462</v>
@@ -5445,43 +5445,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N16" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O16" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P16" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.8242228045382</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R16" t="n">
-        <v>559.0838802267907</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S16" t="n">
-        <v>348.3900938121797</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T16" t="n">
-        <v>115.9505818408995</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U16" t="n">
-        <v>98.67576390197789</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="V16" t="n">
-        <v>98.67576390197789</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1616.115538187954</v>
+        <v>1241.72458672413</v>
       </c>
       <c r="C17" t="n">
-        <v>1234.181779520761</v>
+        <v>859.7908280569375</v>
       </c>
       <c r="D17" t="n">
-        <v>861.3578147479845</v>
+        <v>859.7908280569375</v>
       </c>
       <c r="E17" t="n">
-        <v>466.5720948540913</v>
+        <v>465.0051081630443</v>
       </c>
       <c r="F17" t="n">
-        <v>466.5720948540913</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G17" t="n">
         <v>50.85391747321462</v>
@@ -5518,16 +5518,16 @@
         <v>154.9459054532635</v>
       </c>
       <c r="K17" t="n">
-        <v>443.1860302481638</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907122</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N17" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O17" t="n">
         <v>2124.896977382889</v>
@@ -5539,28 +5539,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R17" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S17" t="n">
-        <v>2403.700933130135</v>
+        <v>2366.28925577037</v>
       </c>
       <c r="T17" t="n">
-        <v>2403.700933130135</v>
+        <v>2366.28925577037</v>
       </c>
       <c r="U17" t="n">
-        <v>2403.700933130135</v>
+        <v>2366.28925577037</v>
       </c>
       <c r="V17" t="n">
-        <v>2403.700933130135</v>
+        <v>2029.309981666311</v>
       </c>
       <c r="W17" t="n">
-        <v>2403.700933130135</v>
+        <v>2029.309981666311</v>
       </c>
       <c r="X17" t="n">
-        <v>2403.700933130135</v>
+        <v>2029.309981666311</v>
       </c>
       <c r="Y17" t="n">
-        <v>2010.159077705973</v>
+        <v>1635.768126242149</v>
       </c>
     </row>
     <row r="18">
@@ -5570,61 +5570,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C18" t="n">
-        <v>759.1557230830589</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D18" t="n">
-        <v>620.317086073271</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E18" t="n">
-        <v>473.2890761301421</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5952780800164</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G18" t="n">
-        <v>210.0732042050866</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H18" t="n">
-        <v>112.1289883137697</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I18" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K18" t="n">
-        <v>392.3832078845233</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L18" t="n">
-        <v>802.133840764949</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M18" t="n">
-        <v>1338.430017546049</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N18" t="n">
-        <v>1578.032071547365</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O18" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q18" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R18" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S18" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T18" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U18" t="n">
         <v>1940.428644414347</v>
@@ -5633,7 +5633,7 @@
         <v>1712.033021862681</v>
       </c>
       <c r="W18" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X18" t="n">
         <v>1272.800164973786</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.85391747321462</v>
+        <v>516.4332204627136</v>
       </c>
       <c r="C19" t="n">
-        <v>50.85391747321462</v>
+        <v>516.4332204627136</v>
       </c>
       <c r="D19" t="n">
-        <v>50.85391747321462</v>
+        <v>516.4332204627136</v>
       </c>
       <c r="E19" t="n">
-        <v>50.85391747321462</v>
+        <v>516.4332204627136</v>
       </c>
       <c r="F19" t="n">
-        <v>50.85391747321462</v>
+        <v>516.4332204627136</v>
       </c>
       <c r="G19" t="n">
-        <v>50.85391747321462</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="H19" t="n">
-        <v>50.85391747321462</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="I19" t="n">
         <v>50.85391747321462</v>
@@ -5700,25 +5700,25 @@
         <v>583.1297470766741</v>
       </c>
       <c r="S19" t="n">
-        <v>583.1297470766741</v>
+        <v>516.4332204627136</v>
       </c>
       <c r="T19" t="n">
-        <v>583.1297470766741</v>
+        <v>516.4332204627136</v>
       </c>
       <c r="U19" t="n">
-        <v>295.9489472408341</v>
+        <v>516.4332204627136</v>
       </c>
       <c r="V19" t="n">
-        <v>295.9489472408341</v>
+        <v>516.4332204627136</v>
       </c>
       <c r="W19" t="n">
-        <v>295.9489472408341</v>
+        <v>516.4332204627136</v>
       </c>
       <c r="X19" t="n">
-        <v>295.9489472408341</v>
+        <v>516.4332204627136</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.91378843311119</v>
+        <v>516.4332204627136</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>196.0415957912899</v>
+        <v>1324.642470188152</v>
       </c>
       <c r="C20" t="n">
-        <v>196.0415957912899</v>
+        <v>1324.642470188152</v>
       </c>
       <c r="D20" t="n">
-        <v>196.0415957912899</v>
+        <v>951.8185054153753</v>
       </c>
       <c r="E20" t="n">
-        <v>196.0415957912899</v>
+        <v>951.8185054153753</v>
       </c>
       <c r="F20" t="n">
-        <v>196.0415957912899</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="G20" t="n">
-        <v>196.0415957912899</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H20" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I20" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481635</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L20" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O20" t="n">
         <v>2124.896977382889</v>
@@ -5782,22 +5782,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T20" t="n">
-        <v>2320.025807011246</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U20" t="n">
-        <v>2065.171335458435</v>
+        <v>2494.25800560884</v>
       </c>
       <c r="V20" t="n">
-        <v>1728.192061354377</v>
+        <v>2494.25800560884</v>
       </c>
       <c r="W20" t="n">
-        <v>1365.657131211978</v>
+        <v>2494.25800560884</v>
       </c>
       <c r="X20" t="n">
-        <v>983.6269907334711</v>
+        <v>2112.227865130333</v>
       </c>
       <c r="Y20" t="n">
-        <v>590.0851353093091</v>
+        <v>1718.686009706171</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
-        <v>50.85391747321462</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="K21" t="n">
-        <v>313.014426141483</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="L21" t="n">
-        <v>722.7650590219087</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M21" t="n">
-        <v>1259.061235803009</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N21" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O21" t="n">
-        <v>2201.966047520444</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P21" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q21" t="n">
         <v>2542.69587366073</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2395.562868991155</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="C22" t="n">
-        <v>2395.562868991155</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="D22" t="n">
-        <v>2395.562868991155</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="E22" t="n">
-        <v>2395.562868991155</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="F22" t="n">
-        <v>2243.082214016932</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="G22" t="n">
-        <v>2074.335526094217</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="H22" t="n">
-        <v>1916.501547908287</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I22" t="n">
-        <v>1916.501547908287</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J22" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K22" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L22" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M22" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N22" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O22" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q22" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R22" t="n">
-        <v>2400.955531082983</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S22" t="n">
-        <v>2400.955531082983</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T22" t="n">
-        <v>2400.955531082983</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U22" t="n">
-        <v>2400.955531082983</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="V22" t="n">
-        <v>2395.562868991155</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="W22" t="n">
-        <v>2395.562868991155</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="X22" t="n">
-        <v>2395.562868991155</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="Y22" t="n">
-        <v>2395.562868991155</v>
+        <v>176.9539853770042</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>443.3341056177199</v>
+        <v>1245.84687838827</v>
       </c>
       <c r="C23" t="n">
-        <v>443.3341056177199</v>
+        <v>863.9131197210775</v>
       </c>
       <c r="D23" t="n">
-        <v>443.3341056177199</v>
+        <v>491.089154948301</v>
       </c>
       <c r="E23" t="n">
-        <v>443.3341056177199</v>
+        <v>491.089154948301</v>
       </c>
       <c r="F23" t="n">
-        <v>443.3341056177199</v>
+        <v>491.089154948301</v>
       </c>
       <c r="G23" t="n">
-        <v>443.3341056177199</v>
+        <v>75.76967070885757</v>
       </c>
       <c r="H23" t="n">
-        <v>202.5511162524148</v>
+        <v>75.76967070885757</v>
       </c>
       <c r="I23" t="n">
-        <v>59.97844262748436</v>
+        <v>59.97844262748435</v>
       </c>
       <c r="J23" t="n">
-        <v>197.2356248381973</v>
+        <v>197.2356248381971</v>
       </c>
       <c r="K23" t="n">
-        <v>535.1817785951594</v>
+        <v>535.1817785951589</v>
       </c>
       <c r="L23" t="n">
         <v>1004.403872472887</v>
@@ -6004,37 +6004,37 @@
         <v>2048.179970075087</v>
       </c>
       <c r="O23" t="n">
-        <v>2482.73398924193</v>
+        <v>2482.733989241929</v>
       </c>
       <c r="P23" t="n">
-        <v>2821.458330977218</v>
+        <v>2821.458330977217</v>
       </c>
       <c r="Q23" t="n">
-        <v>2998.922131374218</v>
+        <v>2998.922131374217</v>
       </c>
       <c r="R23" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374217</v>
       </c>
       <c r="S23" t="n">
-        <v>2788.211208809222</v>
+        <v>2998.922131374217</v>
       </c>
       <c r="T23" t="n">
-        <v>2567.286421386362</v>
+        <v>2777.997343951357</v>
       </c>
       <c r="U23" t="n">
-        <v>2312.463845284865</v>
+        <v>2777.997343951357</v>
       </c>
       <c r="V23" t="n">
-        <v>1975.484571180807</v>
+        <v>2777.997343951357</v>
       </c>
       <c r="W23" t="n">
-        <v>1612.949641038408</v>
+        <v>2415.462413808958</v>
       </c>
       <c r="X23" t="n">
-        <v>1230.919500559901</v>
+        <v>2033.432273330451</v>
       </c>
       <c r="Y23" t="n">
-        <v>837.377645135739</v>
+        <v>1639.890417906289</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>472.7955053729405</v>
       </c>
       <c r="F24" t="n">
-        <v>338.1017073228149</v>
+        <v>338.1017073228148</v>
       </c>
       <c r="G24" t="n">
         <v>209.7929530848324</v>
@@ -6065,28 +6065,28 @@
         <v>113.9089557924513</v>
       </c>
       <c r="I24" t="n">
-        <v>59.97844262748436</v>
+        <v>59.97844262748435</v>
       </c>
       <c r="J24" t="n">
-        <v>59.97844262748436</v>
+        <v>59.97844262748435</v>
       </c>
       <c r="K24" t="n">
-        <v>59.97844262748436</v>
+        <v>355.8999103787193</v>
       </c>
       <c r="L24" t="n">
-        <v>515.1248513560852</v>
+        <v>811.0463191073202</v>
       </c>
       <c r="M24" t="n">
-        <v>1104.395757371587</v>
+        <v>1400.317225122822</v>
       </c>
       <c r="N24" t="n">
-        <v>1722.657813846282</v>
+        <v>1443.101369738137</v>
       </c>
       <c r="O24" t="n">
-        <v>2212.738576656635</v>
+        <v>1933.18213254849</v>
       </c>
       <c r="P24" t="n">
-        <v>2524.121592447383</v>
+        <v>2313.836032800034</v>
       </c>
       <c r="Q24" t="n">
         <v>2524.121592447383</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.1562998016515</v>
+        <v>76.11223844450492</v>
       </c>
       <c r="C25" t="n">
-        <v>95.1562998016515</v>
+        <v>76.11223844450492</v>
       </c>
       <c r="D25" t="n">
-        <v>95.1562998016515</v>
+        <v>59.97844262748435</v>
       </c>
       <c r="E25" t="n">
-        <v>95.1562998016515</v>
+        <v>59.97844262748435</v>
       </c>
       <c r="F25" t="n">
-        <v>95.1562998016515</v>
+        <v>59.97844262748435</v>
       </c>
       <c r="G25" t="n">
-        <v>95.1562998016515</v>
+        <v>59.97844262748435</v>
       </c>
       <c r="H25" t="n">
-        <v>95.1562998016515</v>
+        <v>59.97844262748435</v>
       </c>
       <c r="I25" t="n">
-        <v>95.1562998016515</v>
+        <v>59.97844262748435</v>
       </c>
       <c r="J25" t="n">
-        <v>59.97844262748436</v>
+        <v>59.97844262748435</v>
       </c>
       <c r="K25" t="n">
         <v>133.6534957960239</v>
@@ -6168,31 +6168,31 @@
         <v>880.6921489575112</v>
       </c>
       <c r="Q25" t="n">
-        <v>871.6216948662859</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="R25" t="n">
-        <v>737.9226498137066</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="S25" t="n">
-        <v>530.345557162894</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="T25" t="n">
-        <v>298.6701798128894</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="U25" t="n">
-        <v>95.1562998016515</v>
+        <v>593.52110403173</v>
       </c>
       <c r="V25" t="n">
-        <v>95.1562998016515</v>
+        <v>593.52110403173</v>
       </c>
       <c r="W25" t="n">
-        <v>95.1562998016515</v>
+        <v>307.3647025491292</v>
       </c>
       <c r="X25" t="n">
-        <v>95.1562998016515</v>
+        <v>76.11223844450492</v>
       </c>
       <c r="Y25" t="n">
-        <v>95.1562998016515</v>
+        <v>76.11223844450492</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1757.3149527112</v>
+        <v>1564.633835725931</v>
       </c>
       <c r="C26" t="n">
-        <v>1757.3149527112</v>
+        <v>1564.633835725931</v>
       </c>
       <c r="D26" t="n">
-        <v>1751.594501233175</v>
+        <v>1191.809870953154</v>
       </c>
       <c r="E26" t="n">
-        <v>1356.808781339282</v>
+        <v>797.0241510592609</v>
       </c>
       <c r="F26" t="n">
-        <v>942.6575906494521</v>
+        <v>797.0241510592609</v>
       </c>
       <c r="G26" t="n">
-        <v>527.3381064100087</v>
+        <v>381.7046668198175</v>
       </c>
       <c r="H26" t="n">
         <v>202.5511162524148</v>
@@ -6241,10 +6241,10 @@
         <v>2048.179970075087</v>
       </c>
       <c r="O26" t="n">
-        <v>2482.73398924193</v>
+        <v>2482.733989241929</v>
       </c>
       <c r="P26" t="n">
-        <v>2821.458330977218</v>
+        <v>2821.458330977217</v>
       </c>
       <c r="Q26" t="n">
         <v>2998.922131374218</v>
@@ -6253,25 +6253,25 @@
         <v>2957.563337872495</v>
       </c>
       <c r="S26" t="n">
-        <v>2788.211208809222</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="T26" t="n">
-        <v>2788.211208809222</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="U26" t="n">
-        <v>2533.388632707726</v>
+        <v>2702.740761770998</v>
       </c>
       <c r="V26" t="n">
-        <v>2533.388632707726</v>
+        <v>2702.740761770998</v>
       </c>
       <c r="W26" t="n">
-        <v>2533.388632707726</v>
+        <v>2340.205831628599</v>
       </c>
       <c r="X26" t="n">
-        <v>2151.358492229219</v>
+        <v>1958.175691150093</v>
       </c>
       <c r="Y26" t="n">
-        <v>2151.358492229219</v>
+        <v>1564.633835725931</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>59.97844262748436</v>
       </c>
       <c r="K27" t="n">
-        <v>59.97844262748436</v>
+        <v>355.8999103787193</v>
       </c>
       <c r="L27" t="n">
-        <v>515.1248513560852</v>
+        <v>811.0463191073202</v>
       </c>
       <c r="M27" t="n">
-        <v>1104.395757371587</v>
+        <v>1035.12487291079</v>
       </c>
       <c r="N27" t="n">
-        <v>1722.657813846282</v>
+        <v>1653.386929385485</v>
       </c>
       <c r="O27" t="n">
-        <v>2212.738576656635</v>
+        <v>2143.467692195838</v>
       </c>
       <c r="P27" t="n">
         <v>2524.121592447383</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2998.922131374218</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="C28" t="n">
-        <v>2960.581763180642</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="D28" t="n">
-        <v>2807.509870008405</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="E28" t="n">
-        <v>2655.500855769723</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="F28" t="n">
-        <v>2503.0202007955</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G28" t="n">
-        <v>2334.452352890531</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H28" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I28" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J28" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K28" t="n">
-        <v>2251.883478212731</v>
+        <v>133.6534957960239</v>
       </c>
       <c r="L28" t="n">
-        <v>2403.767469439469</v>
+        <v>285.5374870227621</v>
       </c>
       <c r="M28" t="n">
-        <v>2575.825289534539</v>
+        <v>457.5953071178318</v>
       </c>
       <c r="N28" t="n">
-        <v>2747.026416705144</v>
+        <v>628.7964342884371</v>
       </c>
       <c r="O28" t="n">
-        <v>2894.239814031095</v>
+        <v>776.009831614388</v>
       </c>
       <c r="P28" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="Q28" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="R28" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="S28" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="T28" t="n">
-        <v>2998.922131374218</v>
+        <v>649.0167716075066</v>
       </c>
       <c r="U28" t="n">
-        <v>2998.922131374218</v>
+        <v>361.8457266817254</v>
       </c>
       <c r="V28" t="n">
-        <v>2998.922131374218</v>
+        <v>101.110422240148</v>
       </c>
       <c r="W28" t="n">
-        <v>2998.922131374218</v>
+        <v>101.110422240148</v>
       </c>
       <c r="X28" t="n">
-        <v>2998.922131374218</v>
+        <v>101.110422240148</v>
       </c>
       <c r="Y28" t="n">
-        <v>2998.922131374218</v>
+        <v>59.97844262748436</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>800.0849170245217</v>
+        <v>1623.673076651176</v>
       </c>
       <c r="C29" t="n">
-        <v>800.0849170245217</v>
+        <v>1241.739317983984</v>
       </c>
       <c r="D29" t="n">
-        <v>800.0849170245217</v>
+        <v>868.9153532112072</v>
       </c>
       <c r="E29" t="n">
-        <v>800.0849170245217</v>
+        <v>474.129633317314</v>
       </c>
       <c r="F29" t="n">
-        <v>800.0849170245217</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G29" t="n">
-        <v>384.7654327850782</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H29" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I29" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J29" t="n">
-        <v>197.2356248381969</v>
+        <v>197.2356248381973</v>
       </c>
       <c r="K29" t="n">
-        <v>535.1817785951589</v>
+        <v>535.1817785951594</v>
       </c>
       <c r="L29" t="n">
-        <v>1004.403872472886</v>
+        <v>1004.403872472887</v>
       </c>
       <c r="M29" t="n">
         <v>1532.653519691109</v>
@@ -6484,31 +6484,31 @@
         <v>2821.458330977217</v>
       </c>
       <c r="Q29" t="n">
-        <v>2998.922131374217</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="R29" t="n">
-        <v>2957.563337872494</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="S29" t="n">
-        <v>2788.211208809222</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="T29" t="n">
-        <v>2669.214656691667</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="U29" t="n">
-        <v>2669.214656691667</v>
+        <v>2702.740761770998</v>
       </c>
       <c r="V29" t="n">
-        <v>2332.235382587608</v>
+        <v>2702.740761770998</v>
       </c>
       <c r="W29" t="n">
-        <v>1969.700452445209</v>
+        <v>2399.746756647702</v>
       </c>
       <c r="X29" t="n">
-        <v>1587.670311966703</v>
+        <v>2017.716616169196</v>
       </c>
       <c r="Y29" t="n">
-        <v>1194.128456542541</v>
+        <v>2017.716616169196</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>472.7955053729405</v>
       </c>
       <c r="F30" t="n">
-        <v>338.1017073228148</v>
+        <v>338.1017073228149</v>
       </c>
       <c r="G30" t="n">
         <v>209.7929530848324</v>
@@ -6539,25 +6539,25 @@
         <v>113.9089557924513</v>
       </c>
       <c r="I30" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J30" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K30" t="n">
-        <v>59.97844262748435</v>
+        <v>355.8999103787193</v>
       </c>
       <c r="L30" t="n">
-        <v>515.1248513560852</v>
+        <v>811.0463191073202</v>
       </c>
       <c r="M30" t="n">
-        <v>1104.395757371587</v>
+        <v>1035.12487291079</v>
       </c>
       <c r="N30" t="n">
-        <v>1722.657813846282</v>
+        <v>1653.386929385485</v>
       </c>
       <c r="O30" t="n">
-        <v>2212.738576656635</v>
+        <v>2143.467692195838</v>
       </c>
       <c r="P30" t="n">
         <v>2524.121592447383</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2178.20842504419</v>
+        <v>102.1250656833283</v>
       </c>
       <c r="C31" t="n">
-        <v>2178.20842504419</v>
+        <v>102.1250656833283</v>
       </c>
       <c r="D31" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="E31" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="F31" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G31" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H31" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I31" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J31" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K31" t="n">
-        <v>2251.88347821273</v>
+        <v>133.6534957960239</v>
       </c>
       <c r="L31" t="n">
-        <v>2403.767469439468</v>
+        <v>285.5374870227621</v>
       </c>
       <c r="M31" t="n">
-        <v>2575.825289534538</v>
+        <v>457.5953071178318</v>
       </c>
       <c r="N31" t="n">
-        <v>2747.026416705144</v>
+        <v>628.7964342884371</v>
       </c>
       <c r="O31" t="n">
-        <v>2894.239814031094</v>
+        <v>776.009831614388</v>
       </c>
       <c r="P31" t="n">
-        <v>2998.922131374217</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="Q31" t="n">
-        <v>2998.922131374217</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="R31" t="n">
-        <v>2998.922131374217</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="S31" t="n">
-        <v>2998.922131374217</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="T31" t="n">
-        <v>2767.246754024213</v>
+        <v>649.0167716075066</v>
       </c>
       <c r="U31" t="n">
-        <v>2767.246754024213</v>
+        <v>649.0167716075066</v>
       </c>
       <c r="V31" t="n">
-        <v>2695.617290631415</v>
+        <v>388.2814671659292</v>
       </c>
       <c r="W31" t="n">
-        <v>2409.460889148815</v>
+        <v>102.1250656833283</v>
       </c>
       <c r="X31" t="n">
-        <v>2178.20842504419</v>
+        <v>102.1250656833283</v>
       </c>
       <c r="Y31" t="n">
-        <v>2178.20842504419</v>
+        <v>102.1250656833283</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1666.168596117843</v>
+        <v>1946.663976204437</v>
       </c>
       <c r="C32" t="n">
-        <v>1284.234837450651</v>
+        <v>1609.021827608245</v>
       </c>
       <c r="D32" t="n">
-        <v>1284.234837450651</v>
+        <v>1609.021827608245</v>
       </c>
       <c r="E32" t="n">
-        <v>889.4491175567575</v>
+        <v>1214.236107714351</v>
       </c>
       <c r="F32" t="n">
-        <v>475.2979268669278</v>
+        <v>800.0849170245217</v>
       </c>
       <c r="G32" t="n">
-        <v>59.97844262748435</v>
+        <v>384.7654327850782</v>
       </c>
       <c r="H32" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I32" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J32" t="n">
-        <v>197.2356248381971</v>
+        <v>197.2356248381973</v>
       </c>
       <c r="K32" t="n">
-        <v>535.1817785951589</v>
+        <v>535.1817785951594</v>
       </c>
       <c r="L32" t="n">
         <v>1004.403872472886</v>
@@ -6721,31 +6721,31 @@
         <v>2821.458330977217</v>
       </c>
       <c r="Q32" t="n">
-        <v>2998.922131374217</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="R32" t="n">
-        <v>2998.922131374217</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="S32" t="n">
-        <v>2835.784131538531</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="T32" t="n">
-        <v>2835.784131538531</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="U32" t="n">
-        <v>2835.784131538531</v>
+        <v>2702.740761770998</v>
       </c>
       <c r="V32" t="n">
-        <v>2835.784131538531</v>
+        <v>2702.740761770998</v>
       </c>
       <c r="W32" t="n">
-        <v>2835.784131538531</v>
+        <v>2340.205831628599</v>
       </c>
       <c r="X32" t="n">
-        <v>2453.753991060024</v>
+        <v>2340.205831628599</v>
       </c>
       <c r="Y32" t="n">
-        <v>2060.212135635863</v>
+        <v>1946.663976204437</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>472.7955053729405</v>
       </c>
       <c r="F33" t="n">
-        <v>338.1017073228148</v>
+        <v>338.1017073228149</v>
       </c>
       <c r="G33" t="n">
         <v>209.7929530848324</v>
@@ -6776,25 +6776,25 @@
         <v>113.9089557924513</v>
       </c>
       <c r="I33" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J33" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K33" t="n">
-        <v>59.97844262748435</v>
+        <v>355.8999103787193</v>
       </c>
       <c r="L33" t="n">
-        <v>515.1248513560852</v>
+        <v>811.0463191073202</v>
       </c>
       <c r="M33" t="n">
-        <v>1104.395757371587</v>
+        <v>1035.12487291079</v>
       </c>
       <c r="N33" t="n">
-        <v>1722.657813846282</v>
+        <v>1653.386929385485</v>
       </c>
       <c r="O33" t="n">
-        <v>2212.738576656635</v>
+        <v>2143.467692195838</v>
       </c>
       <c r="P33" t="n">
         <v>2524.121592447383</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="C34" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="D34" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="E34" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="F34" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G34" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H34" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I34" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J34" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K34" t="n">
         <v>133.6534957960239</v>
@@ -6888,22 +6888,22 @@
         <v>880.6921489575112</v>
       </c>
       <c r="T34" t="n">
-        <v>880.6921489575112</v>
+        <v>649.0167716075066</v>
       </c>
       <c r="U34" t="n">
-        <v>606.8701485516626</v>
+        <v>649.0167716075066</v>
       </c>
       <c r="V34" t="n">
-        <v>346.1348441100852</v>
+        <v>649.0167716075066</v>
       </c>
       <c r="W34" t="n">
-        <v>59.97844262748435</v>
+        <v>362.8603701249057</v>
       </c>
       <c r="X34" t="n">
-        <v>59.97844262748435</v>
+        <v>362.8603701249057</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.97844262748435</v>
+        <v>140.8252113171828</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1631.548285265993</v>
+        <v>1666.168596117843</v>
       </c>
       <c r="C35" t="n">
-        <v>1631.548285265993</v>
+        <v>1284.234837450651</v>
       </c>
       <c r="D35" t="n">
-        <v>1631.548285265993</v>
+        <v>1284.234837450651</v>
       </c>
       <c r="E35" t="n">
-        <v>1356.808781339282</v>
+        <v>889.4491175567575</v>
       </c>
       <c r="F35" t="n">
-        <v>942.6575906494521</v>
+        <v>475.2979268669278</v>
       </c>
       <c r="G35" t="n">
-        <v>527.3381064100087</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H35" t="n">
-        <v>202.5511162524148</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I35" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J35" t="n">
         <v>197.2356248381971</v>
@@ -6958,31 +6958,31 @@
         <v>2821.458330977217</v>
       </c>
       <c r="Q35" t="n">
-        <v>2998.922131374217</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="R35" t="n">
-        <v>2998.922131374217</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="S35" t="n">
-        <v>2998.922131374217</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="T35" t="n">
-        <v>2998.922131374217</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="U35" t="n">
-        <v>2744.099555272721</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="V35" t="n">
-        <v>2407.120281168662</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="W35" t="n">
-        <v>2407.120281168662</v>
+        <v>2835.784131538531</v>
       </c>
       <c r="X35" t="n">
-        <v>2025.090140690156</v>
+        <v>2453.753991060024</v>
       </c>
       <c r="Y35" t="n">
-        <v>1631.548285265993</v>
+        <v>2060.212135635863</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>472.7955053729405</v>
       </c>
       <c r="F36" t="n">
-        <v>338.1017073228148</v>
+        <v>338.1017073228149</v>
       </c>
       <c r="G36" t="n">
         <v>209.7929530848324</v>
@@ -7013,28 +7013,28 @@
         <v>113.9089557924513</v>
       </c>
       <c r="I36" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J36" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K36" t="n">
-        <v>235.5684072479393</v>
+        <v>355.8999103787193</v>
       </c>
       <c r="L36" t="n">
-        <v>235.5684072479393</v>
+        <v>811.0463191073202</v>
       </c>
       <c r="M36" t="n">
-        <v>824.8393132634417</v>
+        <v>1400.317225122822</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.101369738137</v>
+        <v>2018.579281597517</v>
       </c>
       <c r="O36" t="n">
-        <v>1933.18213254849</v>
+        <v>2508.66004440787</v>
       </c>
       <c r="P36" t="n">
-        <v>2313.836032800034</v>
+        <v>2524.121592447383</v>
       </c>
       <c r="Q36" t="n">
         <v>2524.121592447383</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.32954374140624</v>
+        <v>101.5333354855284</v>
       </c>
       <c r="C37" t="n">
-        <v>85.32954374140624</v>
+        <v>101.5333354855284</v>
       </c>
       <c r="D37" t="n">
-        <v>85.32954374140624</v>
+        <v>101.5333354855284</v>
       </c>
       <c r="E37" t="n">
-        <v>85.32954374140624</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="F37" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G37" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H37" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I37" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J37" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K37" t="n">
         <v>133.6534957960239</v>
@@ -7131,16 +7131,16 @@
         <v>593.52110403173</v>
       </c>
       <c r="V37" t="n">
-        <v>593.52110403173</v>
+        <v>332.7857995901526</v>
       </c>
       <c r="W37" t="n">
-        <v>307.3647025491292</v>
+        <v>332.7857995901526</v>
       </c>
       <c r="X37" t="n">
-        <v>307.3647025491292</v>
+        <v>101.5333354855284</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.32954374140624</v>
+        <v>101.5333354855284</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1451.844287982761</v>
+        <v>1395.281706662658</v>
       </c>
       <c r="C38" t="n">
-        <v>1069.910529315569</v>
+        <v>1395.281706662658</v>
       </c>
       <c r="D38" t="n">
-        <v>697.0865645427923</v>
+        <v>1395.281706662658</v>
       </c>
       <c r="E38" t="n">
-        <v>302.3008446488992</v>
+        <v>1214.236107714351</v>
       </c>
       <c r="F38" t="n">
-        <v>302.3008446488992</v>
+        <v>800.0849170245217</v>
       </c>
       <c r="G38" t="n">
-        <v>302.3008446488992</v>
+        <v>384.7654327850782</v>
       </c>
       <c r="H38" t="n">
         <v>59.97844262748436</v>
@@ -7210,16 +7210,16 @@
         <v>2533.388632707726</v>
       </c>
       <c r="V38" t="n">
-        <v>2196.409358603667</v>
+        <v>2533.388632707726</v>
       </c>
       <c r="W38" t="n">
-        <v>1833.874428461268</v>
+        <v>2170.853702565327</v>
       </c>
       <c r="X38" t="n">
-        <v>1451.844287982761</v>
+        <v>1788.82356208682</v>
       </c>
       <c r="Y38" t="n">
-        <v>1451.844287982761</v>
+        <v>1395.281706662658</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J39" t="n">
-        <v>59.97844262748436</v>
+        <v>159.100186849982</v>
       </c>
       <c r="K39" t="n">
-        <v>59.97844262748436</v>
+        <v>455.021654601217</v>
       </c>
       <c r="L39" t="n">
-        <v>515.1248513560852</v>
+        <v>852.4820430280926</v>
       </c>
       <c r="M39" t="n">
-        <v>1104.395757371587</v>
+        <v>1441.752949043595</v>
       </c>
       <c r="N39" t="n">
-        <v>1722.657813846282</v>
+        <v>1443.101369738137</v>
       </c>
       <c r="O39" t="n">
-        <v>2212.738576656635</v>
+        <v>1933.18213254849</v>
       </c>
       <c r="P39" t="n">
-        <v>2524.121592447383</v>
+        <v>2313.836032800034</v>
       </c>
       <c r="Q39" t="n">
         <v>2524.121592447383</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>593.52110403173</v>
+        <v>212.4590976017072</v>
       </c>
       <c r="C40" t="n">
-        <v>593.52110403173</v>
+        <v>212.4590976017072</v>
       </c>
       <c r="D40" t="n">
-        <v>593.52110403173</v>
+        <v>212.4590976017072</v>
       </c>
       <c r="E40" t="n">
-        <v>537.2708733530164</v>
+        <v>212.4590976017072</v>
       </c>
       <c r="F40" t="n">
-        <v>384.7902183787936</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G40" t="n">
-        <v>216.2223704738241</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H40" t="n">
         <v>59.97844262748436</v>
@@ -7365,19 +7365,19 @@
         <v>880.6921489575112</v>
       </c>
       <c r="U40" t="n">
-        <v>593.52110403173</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="V40" t="n">
-        <v>593.52110403173</v>
+        <v>619.9568445159339</v>
       </c>
       <c r="W40" t="n">
-        <v>593.52110403173</v>
+        <v>443.7115617063315</v>
       </c>
       <c r="X40" t="n">
-        <v>593.52110403173</v>
+        <v>212.4590976017072</v>
       </c>
       <c r="Y40" t="n">
-        <v>593.52110403173</v>
+        <v>212.4590976017072</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1829.306595953529</v>
+        <v>1666.168596117843</v>
       </c>
       <c r="C41" t="n">
-        <v>1447.372837286337</v>
+        <v>1284.234837450651</v>
       </c>
       <c r="D41" t="n">
         <v>1284.234837450651</v>
@@ -7402,13 +7402,13 @@
         <v>475.2979268669278</v>
       </c>
       <c r="G41" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H41" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I41" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J41" t="n">
         <v>197.2356248381973</v>
@@ -7432,31 +7432,31 @@
         <v>2821.458330977217</v>
       </c>
       <c r="Q41" t="n">
-        <v>2998.922131374217</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="R41" t="n">
-        <v>2998.922131374217</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="S41" t="n">
-        <v>2998.922131374217</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="T41" t="n">
-        <v>2998.922131374217</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="U41" t="n">
-        <v>2998.922131374217</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="V41" t="n">
-        <v>2998.922131374217</v>
+        <v>2661.942857270159</v>
       </c>
       <c r="W41" t="n">
-        <v>2998.922131374217</v>
+        <v>2299.40792712776</v>
       </c>
       <c r="X41" t="n">
-        <v>2616.89199089571</v>
+        <v>1917.377786649253</v>
       </c>
       <c r="Y41" t="n">
-        <v>2223.350135471549</v>
+        <v>1917.377786649253</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>472.7955053729405</v>
       </c>
       <c r="F42" t="n">
-        <v>338.1017073228148</v>
+        <v>338.1017073228149</v>
       </c>
       <c r="G42" t="n">
         <v>209.7929530848324</v>
@@ -7487,25 +7487,25 @@
         <v>113.9089557924513</v>
       </c>
       <c r="I42" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J42" t="n">
-        <v>159.100186849982</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K42" t="n">
-        <v>455.021654601217</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="L42" t="n">
-        <v>910.1680633298179</v>
+        <v>515.1248513560852</v>
       </c>
       <c r="M42" t="n">
-        <v>1499.43896934532</v>
+        <v>1104.395757371587</v>
       </c>
       <c r="N42" t="n">
-        <v>2117.701025820015</v>
+        <v>1722.657813846282</v>
       </c>
       <c r="O42" t="n">
-        <v>2524.121592447383</v>
+        <v>2143.467692195838</v>
       </c>
       <c r="P42" t="n">
         <v>2524.121592447383</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>76.11223844450492</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="C43" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="D43" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="E43" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="F43" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G43" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H43" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I43" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J43" t="n">
-        <v>59.97844262748435</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K43" t="n">
         <v>133.6534957960239</v>
@@ -7605,16 +7605,16 @@
         <v>593.52110403173</v>
       </c>
       <c r="V43" t="n">
-        <v>593.52110403173</v>
+        <v>332.7857995901526</v>
       </c>
       <c r="W43" t="n">
-        <v>307.3647025491292</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="X43" t="n">
-        <v>76.11223844450492</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="Y43" t="n">
-        <v>76.11223844450492</v>
+        <v>59.97844262748436</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1829.30659595353</v>
+        <v>1152.375117451748</v>
       </c>
       <c r="C44" t="n">
-        <v>1447.372837286337</v>
+        <v>1152.375117451748</v>
       </c>
       <c r="D44" t="n">
-        <v>1074.548872513561</v>
+        <v>779.5511526789713</v>
       </c>
       <c r="E44" t="n">
-        <v>679.7631526196676</v>
+        <v>384.7654327850782</v>
       </c>
       <c r="F44" t="n">
-        <v>265.6119619298379</v>
+        <v>384.7654327850782</v>
       </c>
       <c r="G44" t="n">
-        <v>59.97844262748436</v>
+        <v>384.7654327850782</v>
       </c>
       <c r="H44" t="n">
         <v>59.97844262748436</v>
@@ -7684,16 +7684,16 @@
         <v>2998.922131374218</v>
       </c>
       <c r="V44" t="n">
-        <v>2998.922131374218</v>
+        <v>2661.942857270159</v>
       </c>
       <c r="W44" t="n">
-        <v>2998.922131374218</v>
+        <v>2299.40792712776</v>
       </c>
       <c r="X44" t="n">
-        <v>2616.891990895711</v>
+        <v>1917.377786649253</v>
       </c>
       <c r="Y44" t="n">
-        <v>2223.350135471549</v>
+        <v>1546.418656969767</v>
       </c>
     </row>
     <row r="45">
@@ -7730,16 +7730,16 @@
         <v>59.97844262748436</v>
       </c>
       <c r="K45" t="n">
-        <v>355.8999103787193</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="L45" t="n">
-        <v>811.0463191073202</v>
+        <v>445.853966895288</v>
       </c>
       <c r="M45" t="n">
-        <v>1400.317225122822</v>
+        <v>1035.12487291079</v>
       </c>
       <c r="N45" t="n">
-        <v>2018.579281597517</v>
+        <v>1653.386929385485</v>
       </c>
       <c r="O45" t="n">
         <v>2143.467692195838</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>364.4681118403884</v>
+        <v>123.8093338647493</v>
       </c>
       <c r="C46" t="n">
-        <v>364.4681118403884</v>
+        <v>123.8093338647493</v>
       </c>
       <c r="D46" t="n">
-        <v>364.4681118403884</v>
+        <v>123.8093338647493</v>
       </c>
       <c r="E46" t="n">
-        <v>212.4590976017072</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="F46" t="n">
         <v>59.97844262748436</v>
@@ -7827,31 +7827,31 @@
         <v>880.6921489575112</v>
       </c>
       <c r="Q46" t="n">
-        <v>871.6216948662859</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="R46" t="n">
-        <v>871.6216948662859</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="S46" t="n">
-        <v>871.6216948662859</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="T46" t="n">
-        <v>639.9463175162814</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="U46" t="n">
-        <v>639.9463175162814</v>
+        <v>593.52110403173</v>
       </c>
       <c r="V46" t="n">
-        <v>379.211013074704</v>
+        <v>593.52110403173</v>
       </c>
       <c r="W46" t="n">
-        <v>379.211013074704</v>
+        <v>307.3647025491292</v>
       </c>
       <c r="X46" t="n">
-        <v>364.4681118403884</v>
+        <v>307.3647025491292</v>
       </c>
       <c r="Y46" t="n">
-        <v>364.4681118403884</v>
+        <v>307.3647025491292</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>83.74785933339986</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8066,19 +8066,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>358.0282919211325</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>450.0846164268631</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.64858173562189</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8294,10 +8294,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>101.1681629939446</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>78.99621350193964</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8309,7 +8309,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>184.462237496749</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8531,10 +8531,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>101.1681629939446</v>
+        <v>83.74785933339989</v>
       </c>
       <c r="K9" t="n">
-        <v>78.99621350193968</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8549,10 +8549,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>352.0652005990326</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562195</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1681629939446</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K12" t="n">
-        <v>78.99621350193964</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8786,10 +8786,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>352.0652005990326</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9005,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>83.74785933339986</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834664</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9020,13 +9020,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>450.0846164268622</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.64858173562189</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9242,7 +9242,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9254,16 +9254,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>295.5863090836206</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>352.0652005990326</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9479,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>83.74785933339987</v>
+        <v>101.1681629939445</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193966</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9491,7 +9491,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>561.2086880137341</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9500,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9719,7 +9719,7 @@
         <v>63.7953719804126</v>
       </c>
       <c r="K24" t="n">
-        <v>44.89423463025625</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9728,16 +9728,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>41.85426658663889</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>344.031008867477</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.69081784716077</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9956,13 +9956,13 @@
         <v>63.7953719804126</v>
       </c>
       <c r="K27" t="n">
-        <v>44.89423463025625</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>236.5354190244624</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9971,7 +9971,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>344.031008867477</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
         <v>60.69081784716077</v>
@@ -10193,13 +10193,13 @@
         <v>63.7953719804126</v>
       </c>
       <c r="K30" t="n">
-        <v>44.89423463025625</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>236.5354190244624</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10208,7 +10208,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>344.031008867477</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
         <v>60.69081784716077</v>
@@ -10430,13 +10430,13 @@
         <v>63.7953719804126</v>
       </c>
       <c r="K33" t="n">
-        <v>44.89423463025625</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>236.5354190244624</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10445,7 +10445,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>344.031008867477</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
         <v>60.69081784716077</v>
@@ -10667,10 +10667,10 @@
         <v>63.7953719804126</v>
       </c>
       <c r="K36" t="n">
-        <v>222.2578352569784</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>22.34860169389005</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10682,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>45.12043538138104</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>60.69081784716077</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10901,28 +10901,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>63.7953719804126</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>44.89423463025625</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>423.8237415190169</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>344.031008867477</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.69081784716077</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11138,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>63.7953719804126</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>44.89423463025625</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11153,10 +11153,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>427.5157663900662</v>
+        <v>442.0504246953069</v>
       </c>
       <c r="P42" t="n">
-        <v>29.5027100889439</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>60.69081784716077</v>
@@ -11378,10 +11378,10 @@
         <v>63.7953719804126</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>44.89423463025625</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>412.1218585300553</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11390,7 +11390,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>143.1398512092109</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
         <v>156.363858050434</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>59.93393838739021</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
         <v>220.4433659829895</v>
@@ -23317,16 +23317,16 @@
         <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>215.2717243189067</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,22 +23424,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>148.592870750429</v>
       </c>
       <c r="G13" t="n">
         <v>167.0592210434877</v>
       </c>
       <c r="H13" t="n">
-        <v>46.64710230501655</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>280.1161865660161</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
-        <v>13.84552715387886</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
         <v>176.6529755334452</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
-        <v>267.2069220779492</v>
+        <v>158.4557702430231</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23737,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H17" t="n">
         <v>325.5814052293737</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.0479844081551</v>
+        <v>67.74959335379233</v>
       </c>
       <c r="T17" t="n">
         <v>220.4433659829895</v>
@@ -23791,7 +23791,7 @@
         <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.8905427472384</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23904,13 +23904,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>47.34362796447565</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>208.5868485504649</v>
+        <v>142.5572872026441</v>
       </c>
       <c r="T19" t="n">
         <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23958,7 +23958,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
-        <v>181.8456036944792</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.3524374659107</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24138,19 +24138,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>31.41657117931918</v>
       </c>
       <c r="I22" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S22" t="n">
         <v>208.5868485504649</v>
@@ -24183,10 +24183,10 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.7892159262516</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
@@ -24220,13 +24220,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.166289397049</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>83.16396078436586</v>
+        <v>321.5391202560179</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>125.5136310881217</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.94520556670599</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>135.5687163816645</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -24387,7 +24387,7 @@
         <v>132.2842255037309</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.82607860242548</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,28 +24408,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>8.979749550313016</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>132.3620546020535</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.5013217243044</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.3586235765045</v>
       </c>
       <c r="U25" t="n">
-        <v>82.82059326539783</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>363.4324781618041</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>144.1771051942893</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T26" t="n">
         <v>218.7155395486319</v>
@@ -24505,13 +24505,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,22 +24603,22 @@
         <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>129.9628453312962</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.8821694259198</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>154.6814885678763</v>
       </c>
       <c r="I28" t="n">
         <v>132.2842255037309</v>
@@ -24654,13 +24654,13 @@
         <v>205.5013217243044</v>
       </c>
       <c r="T28" t="n">
-        <v>229.3586235765045</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2993344765234</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -24669,7 +24669,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>179.0941474031086</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>321.5391202560179</v>
       </c>
       <c r="I29" t="n">
         <v>141.1469468886812</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T29" t="n">
-        <v>100.9089529522529</v>
+        <v>218.7155395486319</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>58.94551576891183</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>109.8160174152294</v>
       </c>
       <c r="E31" t="n">
         <v>150.4889240962943</v>
@@ -24897,13 +24897,13 @@
         <v>284.2993344765234</v>
       </c>
       <c r="V31" t="n">
-        <v>187.2147826382923</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>43.84869397028984</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>321.5391202560179</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>141.1469468886812</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.94520556670599</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.151987935310775</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T32" t="n">
         <v>218.7155395486319</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>101.6815139947346</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25128,13 +25128,13 @@
         <v>205.5013217243044</v>
       </c>
       <c r="T34" t="n">
-        <v>229.3586235765045</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>13.21555407473328</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>118.8457538075097</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>321.5391202560179</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>141.1469468886812</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>218.7155395486319</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>197.4029610036453</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>109.3495801668307</v>
       </c>
       <c r="F37" t="n">
-        <v>125.858258321698</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.8821694259198</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>211.6027197361306</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.166289397049</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>81.63994225481721</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>141.1469468886812</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,16 +25557,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>94.80119572436789</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.8821694259198</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>154.6814885678763</v>
       </c>
       <c r="I40" t="n">
         <v>132.2842255037309</v>
@@ -25605,16 +25605,16 @@
         <v>229.3586235765045</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>108.8120074862685</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>141.406005496743</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>207.5891052877195</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>252.2743503404815</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>151.9473519840861</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>13.21555407473329</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>207.589105287719</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H44" t="n">
-        <v>321.5391202560179</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>141.1469468886812</v>
@@ -25924,16 +25924,16 @@
         <v>252.2743503404815</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>22.3568984872287</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -26031,10 +26031,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>87.29634177140201</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.8821694259198</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>8.979749550313016</v>
       </c>
       <c r="R46" t="n">
         <v>132.3620546020535</v>
@@ -26076,19 +26076,19 @@
         <v>205.5013217243044</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.3586235765045</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2993344765234</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>214.3444672416056</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>627279.099497773</v>
+        <v>627279.0994977731</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>627279.0994977729</v>
+        <v>627279.099497773</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678115.3275887936</v>
+        <v>678115.3275887935</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678115.3275887936</v>
+        <v>678115.3275887935</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678115.3275887936</v>
+        <v>678115.3275887935</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678115.3275887936</v>
+        <v>678115.3275887935</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>441383.8347841547</v>
+        <v>441383.8347841545</v>
       </c>
       <c r="C2" t="n">
-        <v>441383.8347841545</v>
+        <v>441383.8347841546</v>
       </c>
       <c r="D2" t="n">
         <v>441383.8347841547</v>
       </c>
       <c r="E2" t="n">
-        <v>290329.0692654591</v>
+        <v>290329.069265459</v>
       </c>
       <c r="F2" t="n">
-        <v>290329.0692654591</v>
+        <v>290329.069265459</v>
       </c>
       <c r="G2" t="n">
         <v>290329.0692654592</v>
@@ -26334,10 +26334,10 @@
         <v>290329.069265459</v>
       </c>
       <c r="I2" t="n">
-        <v>315757.0310100825</v>
+        <v>315757.0310100823</v>
       </c>
       <c r="J2" t="n">
-        <v>315757.0310100824</v>
+        <v>315757.0310100823</v>
       </c>
       <c r="K2" t="n">
         <v>315757.0310100823</v>
@@ -26346,16 +26346,16 @@
         <v>315757.0310100823</v>
       </c>
       <c r="M2" t="n">
-        <v>315757.0310100822</v>
+        <v>315757.0310100823</v>
       </c>
       <c r="N2" t="n">
-        <v>315757.0310100823</v>
+        <v>315757.0310100826</v>
       </c>
       <c r="O2" t="n">
         <v>315757.0310100823</v>
       </c>
       <c r="P2" t="n">
-        <v>315757.0310100823</v>
+        <v>315757.0310100822</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304582.1559383054</v>
+        <v>304582.1559383053</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>184425.8404369819</v>
       </c>
       <c r="E4" t="n">
-        <v>34483.08084438484</v>
+        <v>34483.08084438485</v>
       </c>
       <c r="F4" t="n">
         <v>34483.08084438485</v>
       </c>
       <c r="G4" t="n">
-        <v>34483.08084438485</v>
+        <v>34483.08084438484</v>
       </c>
       <c r="H4" t="n">
         <v>34483.08084438485</v>
@@ -26441,13 +26441,13 @@
         <v>33415.30008801658</v>
       </c>
       <c r="J4" t="n">
-        <v>33415.30008801658</v>
+        <v>33415.30008801657</v>
       </c>
       <c r="K4" t="n">
-        <v>33415.30008801658</v>
+        <v>33415.30008801657</v>
       </c>
       <c r="L4" t="n">
-        <v>33415.30008801658</v>
+        <v>33415.30008801657</v>
       </c>
       <c r="M4" t="n">
         <v>33415.30008801658</v>
@@ -26459,7 +26459,7 @@
         <v>33415.30008801657</v>
       </c>
       <c r="P4" t="n">
-        <v>33415.30008801658</v>
+        <v>33415.30008801657</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>74347.80246230468</v>
       </c>
       <c r="C5" t="n">
-        <v>74347.80246230468</v>
+        <v>74347.80246230467</v>
       </c>
       <c r="D5" t="n">
-        <v>74347.80246230468</v>
+        <v>74347.80246230467</v>
       </c>
       <c r="E5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="F5" t="n">
         <v>40720.20246230468</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121971.9640534372</v>
+        <v>-121971.9640534373</v>
       </c>
       <c r="C6" t="n">
-        <v>182610.1918848679</v>
+        <v>182610.191884868</v>
       </c>
       <c r="D6" t="n">
-        <v>182610.1918848682</v>
+        <v>182610.1918848681</v>
       </c>
       <c r="E6" t="n">
-        <v>215125.7859587696</v>
+        <v>208558.1874579566</v>
       </c>
       <c r="F6" t="n">
-        <v>215125.7859587696</v>
+        <v>208558.1874579566</v>
       </c>
       <c r="G6" t="n">
-        <v>215125.7859587697</v>
+        <v>208558.1874579568</v>
       </c>
       <c r="H6" t="n">
-        <v>215125.7859587694</v>
+        <v>208558.1874579566</v>
       </c>
       <c r="I6" t="n">
-        <v>128309.1777325107</v>
+        <v>122847.1427858118</v>
       </c>
       <c r="J6" t="n">
-        <v>66226.21645011415</v>
+        <v>60764.1815034153</v>
       </c>
       <c r="K6" t="n">
-        <v>232546.4962421362</v>
+        <v>227084.4612954374</v>
       </c>
       <c r="L6" t="n">
-        <v>232546.4962421361</v>
+        <v>227084.4612954374</v>
       </c>
       <c r="M6" t="n">
-        <v>232546.4962421361</v>
+        <v>227084.4612954373</v>
       </c>
       <c r="N6" t="n">
-        <v>232546.4962421362</v>
+        <v>227084.4612954376</v>
       </c>
       <c r="O6" t="n">
-        <v>232546.4962421362</v>
+        <v>227084.4612954374</v>
       </c>
       <c r="P6" t="n">
-        <v>232546.4962421361</v>
+        <v>227084.4612954372</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="C3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988861</v>
       </c>
       <c r="D3" t="n">
+        <v>95.01032947988861</v>
+      </c>
+      <c r="E3" t="n">
         <v>95.0103294798887</v>
       </c>
-      <c r="E3" t="n">
-        <v>95.0103294798888</v>
-      </c>
       <c r="F3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="G3" t="n">
-        <v>95.0103294798887</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="H3" t="n">
-        <v>95.0103294798887</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="I3" t="n">
         <v>193.193499222085</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="C4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="D4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="E4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="F4" t="n">
         <v>635.6739684151827</v>
@@ -26810,25 +26810,25 @@
         <v>635.6739684151827</v>
       </c>
       <c r="I4" t="n">
-        <v>749.7305328435544</v>
+        <v>749.7305328435543</v>
       </c>
       <c r="J4" t="n">
         <v>749.7305328435544</v>
       </c>
       <c r="K4" t="n">
-        <v>749.7305328435543</v>
+        <v>749.7305328435544</v>
       </c>
       <c r="L4" t="n">
-        <v>749.7305328435543</v>
+        <v>749.7305328435544</v>
       </c>
       <c r="M4" t="n">
-        <v>749.7305328435543</v>
+        <v>749.7305328435544</v>
       </c>
       <c r="N4" t="n">
         <v>749.7305328435544</v>
       </c>
       <c r="O4" t="n">
-        <v>749.7305328435543</v>
+        <v>749.7305328435544</v>
       </c>
       <c r="P4" t="n">
         <v>749.7305328435544</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>98.18316974219633</v>
+        <v>98.18316974219631</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.0565644283718</v>
+        <v>114.0565644283716</v>
       </c>
       <c r="J4" t="n">
         <v>635.6739684151828</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>164.3632063559213</v>
       </c>
       <c r="G2" t="n">
-        <v>296.8813349780289</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>325.5814052293737</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>149.20883953326</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J4" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.45425489239292</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T4" t="n">
         <v>230.1151168515673</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.73916953180442</v>
+        <v>39.64482090437961</v>
       </c>
       <c r="S5" t="n">
-        <v>78.1468290583452</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27797,7 +27797,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J7" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>23.80540818138465</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R7" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S7" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>105.2760496268155</v>
+        <v>121.0655797831101</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>206.5757917170789</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>372.6262021911683</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S8" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U8" t="n">
         <v>252.305926837283</v>
@@ -27918,7 +27918,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>47.34362796447565</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.80540818138466</v>
+        <v>15.75238407055024</v>
       </c>
       <c r="R10" t="n">
         <v>140.32293915197</v>
@@ -28064,13 +28064,13 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T10" t="n">
-        <v>105.2760496268156</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H2" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I2" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J2" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K2" t="n">
-        <v>48.58560883850213</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L2" t="n">
-        <v>60.2747439975781</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M2" t="n">
-        <v>67.06726639712772</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N2" t="n">
-        <v>68.15248488410154</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O2" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P2" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R2" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S2" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T2" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H3" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I3" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J3" t="n">
-        <v>19.30771233326684</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K3" t="n">
-        <v>32.99995566472704</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L3" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M3" t="n">
-        <v>51.78062956653939</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N3" t="n">
-        <v>53.15110875309365</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O3" t="n">
-        <v>48.62288059712762</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P3" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q3" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R3" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S3" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H4" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I4" t="n">
-        <v>5.152363441302823</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J4" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K4" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L4" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M4" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N4" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O4" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P4" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.34655975146321</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R4" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S4" t="n">
-        <v>2.985816419884373</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U4" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859841</v>
       </c>
       <c r="H5" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I5" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285791</v>
       </c>
       <c r="J5" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630632</v>
       </c>
       <c r="K5" t="n">
-        <v>48.58560883850213</v>
+        <v>48.58560883850203</v>
       </c>
       <c r="L5" t="n">
-        <v>60.2747439975781</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M5" t="n">
-        <v>67.06726639712772</v>
+        <v>67.0672663971276</v>
       </c>
       <c r="N5" t="n">
-        <v>68.15248488410154</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O5" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911389</v>
       </c>
       <c r="P5" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736616</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531184</v>
       </c>
       <c r="R5" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S5" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504371</v>
       </c>
       <c r="T5" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H6" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I6" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689865</v>
       </c>
       <c r="J6" t="n">
-        <v>19.30771233326684</v>
+        <v>19.3077123332668</v>
       </c>
       <c r="K6" t="n">
-        <v>32.99995566472704</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L6" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869704</v>
       </c>
       <c r="M6" t="n">
-        <v>51.78062956653939</v>
+        <v>51.78062956653929</v>
       </c>
       <c r="N6" t="n">
-        <v>53.15110875309365</v>
+        <v>53.15110875309354</v>
       </c>
       <c r="O6" t="n">
-        <v>48.62288059712762</v>
+        <v>48.62288059712753</v>
       </c>
       <c r="P6" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806972</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927055</v>
       </c>
       <c r="R6" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488022</v>
       </c>
       <c r="S6" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133736</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H7" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I7" t="n">
-        <v>5.152363441302823</v>
+        <v>5.152363441302813</v>
       </c>
       <c r="J7" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K7" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L7" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M7" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N7" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729452</v>
       </c>
       <c r="O7" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P7" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.34655975146321</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R7" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795556</v>
       </c>
       <c r="S7" t="n">
-        <v>2.985816419884373</v>
+        <v>2.985816419884367</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.7320468009106169</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859841</v>
       </c>
       <c r="H8" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I8" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285791</v>
       </c>
       <c r="J8" t="n">
-        <v>32.41761990630635</v>
+        <v>32.41761990630632</v>
       </c>
       <c r="K8" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850203</v>
       </c>
       <c r="L8" t="n">
-        <v>60.27474399757804</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M8" t="n">
-        <v>67.06726639712765</v>
+        <v>67.0672663971276</v>
       </c>
       <c r="N8" t="n">
-        <v>68.15248488410147</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O8" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911389</v>
       </c>
       <c r="P8" t="n">
-        <v>54.92504177736621</v>
+        <v>54.92504177736616</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531184</v>
       </c>
       <c r="R8" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S8" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504371</v>
       </c>
       <c r="T8" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H9" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I9" t="n">
-        <v>7.036142324689871</v>
+        <v>7.036142324689865</v>
       </c>
       <c r="J9" t="n">
-        <v>19.30771233326682</v>
+        <v>19.3077123332668</v>
       </c>
       <c r="K9" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L9" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869704</v>
       </c>
       <c r="M9" t="n">
-        <v>51.78062956653933</v>
+        <v>51.78062956653929</v>
       </c>
       <c r="N9" t="n">
-        <v>53.15110875309359</v>
+        <v>53.15110875309354</v>
       </c>
       <c r="O9" t="n">
-        <v>48.62288059712757</v>
+        <v>48.62288059712753</v>
       </c>
       <c r="P9" t="n">
-        <v>39.02414834806976</v>
+        <v>39.02414834806972</v>
       </c>
       <c r="Q9" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927055</v>
       </c>
       <c r="R9" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488022</v>
       </c>
       <c r="S9" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8237216301133744</v>
+        <v>0.8237216301133736</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H10" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I10" t="n">
-        <v>5.152363441302818</v>
+        <v>5.152363441302813</v>
       </c>
       <c r="J10" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K10" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L10" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M10" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N10" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729452</v>
       </c>
       <c r="O10" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P10" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R10" t="n">
-        <v>7.703624419795562</v>
+        <v>7.703624419795556</v>
       </c>
       <c r="S10" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884367</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7320468009106176</v>
+        <v>0.7320468009106169</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850213</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L11" t="n">
-        <v>60.2747439975781</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712772</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410154</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326684</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472704</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653939</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N12" t="n">
-        <v>53.15110875309365</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712762</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P12" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S12" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302823</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J13" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.34655975146321</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884373</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H14" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K14" t="n">
-        <v>48.58560883850213</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L14" t="n">
-        <v>60.2747439975781</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712772</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N14" t="n">
-        <v>68.15248488410154</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T14" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J15" t="n">
-        <v>19.30771233326684</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472704</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653939</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N15" t="n">
-        <v>53.15110875309365</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712762</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P15" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R15" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S15" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H16" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302823</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J16" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L16" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M16" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N16" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.34655975146321</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R16" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884373</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H17" t="n">
         <v>3.911656429290089</v>
@@ -32235,25 +32235,25 @@
         <v>14.72516875285793</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630635</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K17" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757804</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N17" t="n">
-        <v>68.15248488410147</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736621</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q17" t="n">
         <v>41.24641896531188</v>
@@ -32308,31 +32308,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689871</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J18" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K18" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L18" t="n">
         <v>44.37251283869708</v>
       </c>
       <c r="M18" t="n">
-        <v>51.78062956653933</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N18" t="n">
-        <v>53.15110875309359</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712757</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P18" t="n">
-        <v>39.02414834806976</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q18" t="n">
         <v>26.08660970927058</v>
@@ -32341,13 +32341,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S18" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133744</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302818</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J19" t="n">
         <v>12.11303823549335</v>
@@ -32408,25 +32408,25 @@
         <v>26.21817829729455</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q19" t="n">
         <v>14.34655975146319</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795562</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S19" t="n">
         <v>2.98581641988437</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106176</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H20" t="n">
         <v>3.911656429290089</v>
@@ -32472,25 +32472,25 @@
         <v>14.72516875285793</v>
       </c>
       <c r="J20" t="n">
-        <v>32.41761990630635</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K20" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757804</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N20" t="n">
-        <v>68.15248488410147</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736621</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q20" t="n">
         <v>41.24641896531188</v>
@@ -32545,31 +32545,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H21" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689871</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J21" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K21" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L21" t="n">
         <v>44.37251283869708</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653933</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N21" t="n">
-        <v>53.15110875309359</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O21" t="n">
-        <v>48.62288059712757</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P21" t="n">
-        <v>39.02414834806976</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q21" t="n">
         <v>26.08660970927058</v>
@@ -32578,13 +32578,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133744</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I22" t="n">
-        <v>5.152363441302818</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J22" t="n">
         <v>12.11303823549335</v>
@@ -32645,25 +32645,25 @@
         <v>26.21817829729455</v>
       </c>
       <c r="O22" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P22" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q22" t="n">
         <v>14.34655975146319</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795562</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S22" t="n">
         <v>2.98581641988437</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106176</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K2" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L2" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M2" t="n">
         <v>464.2785454406509</v>
@@ -34713,13 +34713,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O2" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P2" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q2" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.8085946144126</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L3" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M3" t="n">
-        <v>541.7133098798994</v>
+        <v>294.3250189260319</v>
       </c>
       <c r="N3" t="n">
-        <v>569.5810543320049</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O3" t="n">
-        <v>382.8480484128796</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P3" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L4" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M4" t="n">
         <v>146.0421320399604</v>
@@ -34871,10 +34871,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P4" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K5" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L5" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M5" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N5" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O5" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605623</v>
       </c>
       <c r="P5" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.42030366054474</v>
+        <v>80.1704866091316</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L6" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M6" t="n">
-        <v>541.7133098798994</v>
+        <v>541.7133098798993</v>
       </c>
       <c r="N6" t="n">
-        <v>569.5810543320049</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O6" t="n">
-        <v>444.7844470457649</v>
+        <v>117.2256694827654</v>
       </c>
       <c r="P6" t="n">
-        <v>344.1715415558448</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q6" t="n">
         <v>185.4518923209819</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L7" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M7" t="n">
         <v>146.0421320399604</v>
@@ -35108,10 +35108,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O7" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P7" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>464.2785454406508</v>
       </c>
       <c r="N8" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O8" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605623</v>
       </c>
       <c r="P8" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q8" t="n">
         <v>136.6325338001977</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>17.42030366054468</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L9" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M9" t="n">
-        <v>541.7133098798994</v>
+        <v>541.7133098798993</v>
       </c>
       <c r="N9" t="n">
         <v>569.5810543320048</v>
@@ -35269,10 +35269,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P9" t="n">
-        <v>344.1715415558448</v>
+        <v>282.235142922959</v>
       </c>
       <c r="Q9" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L10" t="n">
         <v>127.0954261044343</v>
@@ -35348,7 +35348,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P10" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K11" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L11" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M11" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N11" t="n">
         <v>450.3053724474507</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P11" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>17.42030366054474</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35500,16 +35500,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>569.5810543320049</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
-        <v>444.7844470457649</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>344.1715415558448</v>
+        <v>282.235142922959</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L13" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M13" t="n">
         <v>146.0421320399604</v>
@@ -35582,10 +35582,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O13" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K14" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L14" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M14" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N14" t="n">
         <v>450.3053724474507</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P14" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q14" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8085946144126</v>
+        <v>202.8721959815267</v>
       </c>
       <c r="L15" t="n">
         <v>413.8895281620462</v>
@@ -35737,10 +35737,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
-        <v>569.5810543320049</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O15" t="n">
-        <v>382.8480484128787</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P15" t="n">
         <v>344.1715415558448</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L16" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M16" t="n">
         <v>146.0421320399604</v>
@@ -35819,10 +35819,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O16" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M17" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N17" t="n">
         <v>450.3053724474507</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.8085946144125</v>
@@ -35974,16 +35974,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N18" t="n">
-        <v>242.0222767690058</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O18" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
-        <v>344.1715415558448</v>
+        <v>282.235142922959</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M20" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N20" t="n">
         <v>450.3053724474507</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>17.42030366054463</v>
       </c>
       <c r="K21" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>413.8895281620462</v>
@@ -36211,7 +36211,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N21" t="n">
-        <v>507.6446556991193</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
         <v>444.7844470457648</v>
@@ -36220,7 +36220,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>298.9105734860959</v>
       </c>
       <c r="L24" t="n">
         <v>459.7438472006069</v>
@@ -36448,16 +36448,16 @@
         <v>595.2231373893964</v>
       </c>
       <c r="N24" t="n">
-        <v>624.507127752217</v>
+        <v>43.21630769223643</v>
       </c>
       <c r="O24" t="n">
         <v>495.0310735458113</v>
       </c>
       <c r="P24" t="n">
-        <v>314.5282987785331</v>
+        <v>384.4988891429744</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>212.4096562094431</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>298.9105734860959</v>
       </c>
       <c r="L27" t="n">
         <v>459.7438472006069</v>
       </c>
       <c r="M27" t="n">
-        <v>595.2231373893964</v>
+        <v>226.3419735388588</v>
       </c>
       <c r="N27" t="n">
         <v>624.507127752217</v>
@@ -36691,7 +36691,7 @@
         <v>495.0310735458113</v>
       </c>
       <c r="P27" t="n">
-        <v>314.5282987785331</v>
+        <v>384.4988891429744</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>298.9105734860959</v>
       </c>
       <c r="L30" t="n">
         <v>459.7438472006069</v>
       </c>
       <c r="M30" t="n">
-        <v>595.2231373893964</v>
+        <v>226.3419735388588</v>
       </c>
       <c r="N30" t="n">
         <v>624.507127752217</v>
@@ -36928,7 +36928,7 @@
         <v>495.0310735458113</v>
       </c>
       <c r="P30" t="n">
-        <v>314.5282987785331</v>
+        <v>384.4988891429744</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>298.9105734860959</v>
       </c>
       <c r="L33" t="n">
         <v>459.7438472006069</v>
       </c>
       <c r="M33" t="n">
-        <v>595.2231373893964</v>
+        <v>226.3419735388588</v>
       </c>
       <c r="N33" t="n">
         <v>624.507127752217</v>
@@ -37165,7 +37165,7 @@
         <v>495.0310735458113</v>
       </c>
       <c r="P33" t="n">
-        <v>314.5282987785331</v>
+        <v>384.4988891429744</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>177.3636006267221</v>
+        <v>298.9105734860959</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>459.7438472006069</v>
       </c>
       <c r="M36" t="n">
         <v>595.2231373893964</v>
@@ -37402,10 +37402,10 @@
         <v>495.0310735458113</v>
       </c>
       <c r="P36" t="n">
-        <v>384.4988891429744</v>
+        <v>15.61772529243713</v>
       </c>
       <c r="Q36" t="n">
-        <v>212.4096562094431</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>100.1229739621189</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>298.9105734860959</v>
       </c>
       <c r="L39" t="n">
-        <v>459.7438472006069</v>
+        <v>401.4751398251269</v>
       </c>
       <c r="M39" t="n">
         <v>595.2231373893964</v>
       </c>
       <c r="N39" t="n">
-        <v>624.507127752217</v>
+        <v>1.362041105597541</v>
       </c>
       <c r="O39" t="n">
         <v>495.0310735458113</v>
       </c>
       <c r="P39" t="n">
-        <v>314.5282987785331</v>
+        <v>384.4988891429744</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>212.4096562094431</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>100.1229739621189</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>298.9105734860959</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>459.7438472006069</v>
@@ -37873,10 +37873,10 @@
         <v>624.507127752217</v>
       </c>
       <c r="O42" t="n">
-        <v>410.5258248761291</v>
+        <v>425.0604831813698</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>384.4988891429744</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>298.9105734860959</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>459.7438472006069</v>
+        <v>389.7732568361653</v>
       </c>
       <c r="M45" t="n">
         <v>595.2231373893964</v>
@@ -38110,7 +38110,7 @@
         <v>624.507127752217</v>
       </c>
       <c r="O45" t="n">
-        <v>126.1499096952738</v>
+        <v>495.0310735458113</v>
       </c>
       <c r="P45" t="n">
         <v>384.4988891429744</v>
